--- a/data/trans_orig/P6712-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C283FC-D958-4193-A739-D4DD1B39128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9053ADE6-30C3-473C-BB76-E5D6750604DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{151B7C60-E72D-412E-83AA-89389CF9F56A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3625F970-523F-4B36-B1AC-E4645FC0A51D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="556">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -78,25 +78,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,29%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,10 +105,10 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>3,46%</t>
@@ -117,16 +117,16 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>9,45%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,1594 +135,1576 @@
     <t>18,18%</t>
   </si>
   <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>10,4%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>24,02%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>24,07%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>29,39%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>39,95%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
+    <t>38,65%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B297E4CC-F101-4A27-B716-AC98213058DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C9EDF7-50E2-4293-9C91-A80E92C1E243}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2602,7 +2584,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2599,13 @@
         <v>17590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2632,13 +2614,13 @@
         <v>8777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -2647,13 +2629,13 @@
         <v>26367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2650,13 @@
         <v>62122</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -2683,13 +2665,13 @@
         <v>39296</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>97</v>
@@ -2698,13 +2680,13 @@
         <v>101419</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2701,13 @@
         <v>90157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -2734,13 +2716,13 @@
         <v>70804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -2749,13 +2731,13 @@
         <v>160961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2752,13 @@
         <v>192750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2785,13 +2767,13 @@
         <v>137666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>311</v>
@@ -2800,13 +2782,13 @@
         <v>330416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2844,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2874,13 +2856,13 @@
         <v>13631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2889,13 +2871,13 @@
         <v>8097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2904,13 +2886,13 @@
         <v>21728</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2907,13 @@
         <v>20151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2940,13 +2922,13 @@
         <v>13183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -2955,13 +2937,13 @@
         <v>33334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2958,13 @@
         <v>72180</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -2991,13 +2973,13 @@
         <v>60707</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -3006,13 +2988,13 @@
         <v>132887</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3009,13 @@
         <v>105521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3042,13 +3024,13 @@
         <v>72594</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -3057,13 +3039,13 @@
         <v>178115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3060,13 @@
         <v>213717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -3093,13 +3075,13 @@
         <v>130226</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>327</v>
@@ -3108,13 +3090,13 @@
         <v>343943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3152,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3182,13 +3164,13 @@
         <v>16555</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3197,13 +3179,13 @@
         <v>12263</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3212,13 +3194,13 @@
         <v>28817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3215,13 @@
         <v>14786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3248,13 +3230,13 @@
         <v>11662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -3263,13 +3245,13 @@
         <v>26448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3266,13 @@
         <v>51349</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3299,13 +3281,13 @@
         <v>37801</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -3314,13 +3296,13 @@
         <v>89150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3317,13 @@
         <v>88526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3350,13 +3332,13 @@
         <v>58957</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3365,13 +3347,13 @@
         <v>147483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3368,13 @@
         <v>195393</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -3401,13 +3383,13 @@
         <v>103607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>262</v>
@@ -3416,13 +3398,13 @@
         <v>299001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,7 +3460,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3490,13 +3472,13 @@
         <v>7342</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3505,13 +3487,13 @@
         <v>2098</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3520,13 +3502,13 @@
         <v>9440</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3523,13 @@
         <v>7515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3556,13 +3538,13 @@
         <v>2960</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3571,13 +3553,13 @@
         <v>10475</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3574,13 @@
         <v>23176</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3607,13 +3589,13 @@
         <v>11722</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -3622,13 +3604,13 @@
         <v>34898</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3625,13 @@
         <v>30014</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -3658,13 +3640,13 @@
         <v>16723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -3673,13 +3655,13 @@
         <v>46737</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3676,13 @@
         <v>89305</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -3709,13 +3691,13 @@
         <v>35145</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>116</v>
@@ -3724,13 +3706,13 @@
         <v>124450</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3768,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3801,10 +3783,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3816,10 +3798,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3831,10 +3813,10 @@
         <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3831,13 @@
         <v>1000</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3867,10 +3849,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3879,13 +3861,13 @@
         <v>1000</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,10 +3885,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3918,10 +3900,10 @@
         <v>12</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3933,10 +3915,10 @@
         <v>12</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,10 +3936,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3966,13 +3948,13 @@
         <v>891</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3981,13 +3963,13 @@
         <v>891</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3984,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4017,13 +3999,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4032,13 +4014,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4088,13 @@
         <v>59544</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -4121,13 +4103,13 @@
         <v>42872</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -4136,13 +4118,13 @@
         <v>102416</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4139,13 @@
         <v>66341</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -4172,13 +4154,13 @@
         <v>39618</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -4187,13 +4169,13 @@
         <v>105959</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4190,13 @@
         <v>223367</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H42" s="7">
         <v>150</v>
@@ -4223,13 +4205,13 @@
         <v>163052</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M42" s="7">
         <v>360</v>
@@ -4238,13 +4220,13 @@
         <v>386419</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4241,13 @@
         <v>334092</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>274</v>
+        <v>96</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H43" s="7">
         <v>223</v>
@@ -4274,28 +4256,28 @@
         <v>243796</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M43" s="7">
         <v>547</v>
       </c>
       <c r="N43" s="7">
-        <v>577888</v>
+        <v>577887</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4292,13 @@
         <v>732481</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>421</v>
@@ -4325,13 +4307,13 @@
         <v>452182</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M44" s="7">
         <v>1099</v>
@@ -4340,13 +4322,13 @@
         <v>1184663</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4370,7 @@
         <v>2199</v>
       </c>
       <c r="N45" s="7">
-        <v>2357345</v>
+        <v>2357344</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -4402,7 +4384,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4424,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20BBBB9-BF6F-4A43-A8CD-2E5133AFB5F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E0C5D-0BAF-465E-B00A-729E28F9701A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4441,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +4530,13 @@
         <v>4690</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4563,13 +4545,13 @@
         <v>1942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4578,13 +4560,13 @@
         <v>6632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4581,13 @@
         <v>12779</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4614,13 +4596,13 @@
         <v>11294</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4629,13 +4611,13 @@
         <v>24073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4632,13 @@
         <v>17509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4665,13 +4647,13 @@
         <v>21531</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -4680,13 +4662,13 @@
         <v>39040</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4683,13 @@
         <v>26005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4716,13 +4698,13 @@
         <v>24157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -4731,13 +4713,13 @@
         <v>50163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4734,13 @@
         <v>18126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4770,10 +4752,10 @@
         <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -4782,13 +4764,13 @@
         <v>51057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4838,13 @@
         <v>20417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4871,13 +4853,13 @@
         <v>11338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4886,13 +4868,13 @@
         <v>31756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4889,13 @@
         <v>33789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4922,13 +4904,13 @@
         <v>25354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -4937,13 +4919,13 @@
         <v>59143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4940,13 @@
         <v>75167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>182</v>
+        <v>351</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -4973,13 +4955,13 @@
         <v>71003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M12" s="7">
         <v>144</v>
@@ -4988,13 +4970,13 @@
         <v>146171</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +4991,13 @@
         <v>88745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5027,10 +5009,10 @@
         <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -5039,13 +5021,13 @@
         <v>163025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5042,13 @@
         <v>126065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -5075,13 +5057,13 @@
         <v>91741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -5090,13 +5072,13 @@
         <v>217807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5134,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5164,13 +5146,13 @@
         <v>14991</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5179,13 +5161,13 @@
         <v>15831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5194,13 +5176,13 @@
         <v>30821</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5197,13 @@
         <v>33123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -5230,13 +5212,13 @@
         <v>30799</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5245,13 +5227,13 @@
         <v>63923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5248,13 @@
         <v>101579</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5281,13 +5263,13 @@
         <v>66396</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -5296,13 +5278,13 @@
         <v>167975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5299,13 @@
         <v>134102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5460,7 +5442,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5472,13 +5454,13 @@
         <v>17930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -5487,13 +5469,13 @@
         <v>20598</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -5502,13 +5484,13 @@
         <v>38527</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5505,13 @@
         <v>30893</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5538,13 +5520,13 @@
         <v>26612</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -5553,13 +5535,13 @@
         <v>57505</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5556,13 @@
         <v>70340</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -5628,10 +5610,10 @@
         <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5640,13 +5622,13 @@
         <v>73179</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5655,13 +5637,13 @@
         <v>181698</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5658,13 @@
         <v>140046</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -5691,13 +5673,13 @@
         <v>76489</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>192</v>
@@ -5706,13 +5688,13 @@
         <v>216535</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,7 +5750,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5780,13 +5762,13 @@
         <v>10120</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5795,13 +5777,13 @@
         <v>8091</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5810,13 +5792,13 @@
         <v>18211</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5813,13 @@
         <v>13141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5846,13 +5828,13 @@
         <v>7668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>259</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -5861,13 +5843,13 @@
         <v>20810</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5864,13 @@
         <v>41752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5897,13 +5879,13 @@
         <v>24499</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5912,13 +5894,13 @@
         <v>66251</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5915,13 @@
         <v>33965</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -5948,13 +5930,13 @@
         <v>28830</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
@@ -5963,13 +5945,13 @@
         <v>62796</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5966,13 @@
         <v>66748</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -5999,13 +5981,13 @@
         <v>36790</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M32" s="7">
         <v>90</v>
@@ -6014,13 +5996,13 @@
         <v>103538</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,7 +6058,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6091,10 +6073,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6106,10 +6088,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6121,10 +6103,10 @@
         <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,10 +6124,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6157,10 +6139,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6172,10 +6154,10 @@
         <v>12</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6172,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6205,13 +6187,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6220,13 +6202,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6223,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6256,13 +6238,13 @@
         <v>1954</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6271,13 +6253,13 @@
         <v>2978</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6274,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6307,13 +6289,13 @@
         <v>2054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6322,13 +6304,13 @@
         <v>5964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6378,13 @@
         <v>68148</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>525</v>
+        <v>65</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -6411,13 +6393,13 @@
         <v>57800</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>425</v>
+        <v>268</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>254</v>
+        <v>521</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M40" s="7">
         <v>117</v>
@@ -6426,13 +6408,13 @@
         <v>125948</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6429,13 @@
         <v>123726</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H41" s="7">
         <v>103</v>
@@ -6462,13 +6444,13 @@
         <v>101727</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>532</v>
+        <v>167</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>64</v>
+        <v>528</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M41" s="7">
         <v>218</v>
@@ -6477,13 +6459,13 @@
         <v>225454</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>64</v>
+        <v>531</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6480,13 @@
         <v>307397</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H42" s="7">
         <v>231</v>
@@ -6513,13 +6495,13 @@
         <v>230852</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M42" s="7">
         <v>514</v>
@@ -6528,13 +6510,13 @@
         <v>538249</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,13 +6531,13 @@
         <v>392361</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H43" s="7">
         <v>273</v>
@@ -6564,13 +6546,13 @@
         <v>278864</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>549</v>
+        <v>445</v>
       </c>
       <c r="M43" s="7">
         <v>647</v>
@@ -6579,13 +6561,13 @@
         <v>671225</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>551</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6582,13 @@
         <v>530689</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>554</v>
+        <v>332</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H44" s="7">
         <v>350</v>
@@ -6615,13 +6597,13 @@
         <v>367929</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M44" s="7">
         <v>840</v>
@@ -6630,13 +6612,13 @@
         <v>898618</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,7 +6674,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9053ADE6-30C3-473C-BB76-E5D6750604DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{448E4381-9B17-4C53-90C6-1AEA2992966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3625F970-523F-4B36-B1AC-E4645FC0A51D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A2B4CB9-ED7D-4F2F-B17E-71BE1CDD921C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="557">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -78,1633 +78,1636 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>38,49%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C9EDF7-50E2-4293-9C91-A80E92C1E243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D829F-CBAA-4379-94ED-3D1C4C2A7B9C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3167,10 +3170,10 @@
         <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3179,13 +3182,13 @@
         <v>12263</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3194,13 +3197,13 @@
         <v>28817</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3218,13 @@
         <v>14786</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3230,13 +3233,13 @@
         <v>11662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -3245,13 +3248,13 @@
         <v>26448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3269,13 @@
         <v>51349</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3281,13 +3284,13 @@
         <v>37801</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -3296,13 +3299,13 @@
         <v>89150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3320,13 @@
         <v>88526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3332,13 +3335,13 @@
         <v>58957</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3347,13 +3350,13 @@
         <v>147483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3371,13 @@
         <v>195393</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -3383,13 +3386,13 @@
         <v>103607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>262</v>
@@ -3398,13 +3401,13 @@
         <v>299001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,7 +3463,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3472,13 +3475,13 @@
         <v>7342</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3493,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3502,13 +3505,13 @@
         <v>9440</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3526,13 @@
         <v>7515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3538,13 +3541,13 @@
         <v>2960</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3556,10 +3559,10 @@
         <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3577,13 @@
         <v>23176</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3589,13 +3592,13 @@
         <v>11722</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -3607,10 +3610,10 @@
         <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3628,13 @@
         <v>30014</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -3640,13 +3643,13 @@
         <v>16723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -3655,13 +3658,13 @@
         <v>46737</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3679,13 @@
         <v>89305</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -3691,13 +3694,13 @@
         <v>35145</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>116</v>
@@ -3706,13 +3709,13 @@
         <v>124450</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,7 +3771,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3783,10 +3786,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3798,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3813,10 +3816,10 @@
         <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3834,13 @@
         <v>1000</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3849,10 +3852,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3861,13 +3864,13 @@
         <v>1000</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,10 +3888,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3900,10 +3903,10 @@
         <v>12</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3915,10 +3918,10 @@
         <v>12</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,10 +3939,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3948,13 +3951,13 @@
         <v>891</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3963,13 +3966,13 @@
         <v>891</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3987,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3999,13 +4002,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4014,13 +4017,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4091,13 @@
         <v>59544</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -4103,13 +4106,13 @@
         <v>42872</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -4118,13 +4121,13 @@
         <v>102416</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,10 +4145,10 @@
         <v>122</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -4154,13 +4157,13 @@
         <v>39618</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -4169,13 +4172,13 @@
         <v>105959</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4193,13 @@
         <v>223367</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="H42" s="7">
         <v>150</v>
@@ -4205,13 +4208,13 @@
         <v>163052</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>360</v>
@@ -4220,13 +4223,13 @@
         <v>386419</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4244,13 @@
         <v>334092</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>223</v>
@@ -4256,13 +4259,13 @@
         <v>243796</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>547</v>
@@ -4274,10 +4277,10 @@
         <v>95</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4295,13 @@
         <v>732481</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H44" s="7">
         <v>421</v>
@@ -4307,13 +4310,13 @@
         <v>452182</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M44" s="7">
         <v>1099</v>
@@ -4322,13 +4325,13 @@
         <v>1184663</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,7 +4387,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E0C5D-0BAF-465E-B00A-729E28F9701A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF07EF3-F6E7-4074-B4F4-022549959050}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,7 +4426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +4533,13 @@
         <v>4690</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4545,13 +4548,13 @@
         <v>1942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4560,13 +4563,13 @@
         <v>6632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4584,13 @@
         <v>12779</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4596,13 +4599,13 @@
         <v>11294</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4611,13 +4614,13 @@
         <v>24073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4635,13 @@
         <v>17509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4647,13 +4650,13 @@
         <v>21531</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -4662,13 +4665,13 @@
         <v>39040</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4686,13 @@
         <v>26005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4698,13 +4701,13 @@
         <v>24157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -4713,13 +4716,13 @@
         <v>50163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4737,13 @@
         <v>18126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4749,13 +4752,13 @@
         <v>32931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -4764,13 +4767,13 @@
         <v>51057</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4841,13 @@
         <v>20417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4853,10 +4856,10 @@
         <v>11338</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>339</v>
@@ -4889,13 +4892,13 @@
         <v>33789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4904,10 +4907,10 @@
         <v>25354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>347</v>
@@ -5009,10 +5012,10 @@
         <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -5021,13 +5024,13 @@
         <v>163025</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5045,13 @@
         <v>126065</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -5057,13 +5060,13 @@
         <v>91741</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -5072,13 +5075,13 @@
         <v>217807</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5149,13 @@
         <v>14991</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5161,13 +5164,13 @@
         <v>15831</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5176,13 +5179,13 @@
         <v>30821</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5200,13 @@
         <v>33123</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -5212,13 +5215,13 @@
         <v>30799</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5227,13 +5230,13 @@
         <v>63923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5251,13 @@
         <v>101579</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5263,13 +5266,13 @@
         <v>66396</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -5278,13 +5281,13 @@
         <v>167975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5302,13 @@
         <v>134102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5314,13 +5317,13 @@
         <v>76464</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -5329,13 +5332,13 @@
         <v>210565</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5353,13 @@
         <v>175793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>122</v>
@@ -5365,13 +5368,13 @@
         <v>127924</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>288</v>
@@ -5380,13 +5383,13 @@
         <v>303718</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5457,13 @@
         <v>17930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -5469,13 +5472,13 @@
         <v>20598</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -5484,13 +5487,13 @@
         <v>38527</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5508,13 @@
         <v>30893</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5520,13 +5523,13 @@
         <v>26612</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -5535,13 +5538,13 @@
         <v>57505</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5559,13 @@
         <v>70340</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -5571,13 +5574,13 @@
         <v>46240</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -5586,13 +5589,13 @@
         <v>116580</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5610,13 @@
         <v>108519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5622,13 +5625,13 @@
         <v>73179</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5637,13 +5640,13 @@
         <v>181698</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5661,13 @@
         <v>140046</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -5673,13 +5676,13 @@
         <v>76489</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>192</v>
@@ -5688,13 +5691,13 @@
         <v>216535</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5762,13 +5765,13 @@
         <v>10120</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5777,13 +5780,13 @@
         <v>8091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5792,7 +5795,7 @@
         <v>18211</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>124</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>462</v>
@@ -5816,10 +5819,10 @@
         <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5828,13 +5831,13 @@
         <v>7668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -5843,13 +5846,13 @@
         <v>20810</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5867,13 @@
         <v>41752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5879,13 +5882,13 @@
         <v>24499</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5894,13 +5897,13 @@
         <v>66251</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5918,13 @@
         <v>33965</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -5930,13 +5933,13 @@
         <v>28830</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
@@ -5945,13 +5948,13 @@
         <v>62796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5969,13 @@
         <v>66748</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -5981,13 +5984,13 @@
         <v>36790</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M32" s="7">
         <v>90</v>
@@ -5996,13 +5999,13 @@
         <v>103538</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6061,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6073,10 +6076,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6088,10 +6091,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6103,10 +6106,10 @@
         <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,10 +6127,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6139,10 +6142,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6154,10 +6157,10 @@
         <v>12</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6175,7 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
@@ -6187,13 +6190,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>502</v>
+        <v>280</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6202,13 +6205,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6226,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>315</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6238,13 +6241,13 @@
         <v>1954</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6253,13 +6256,13 @@
         <v>2978</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6277,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6289,13 +6292,13 @@
         <v>2054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6304,13 +6307,13 @@
         <v>5964</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6381,13 @@
         <v>68148</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>65</v>
+        <v>518</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -6393,13 +6396,13 @@
         <v>57800</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>268</v>
+        <v>519</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>522</v>
+        <v>467</v>
       </c>
       <c r="M40" s="7">
         <v>117</v>
@@ -6408,13 +6411,13 @@
         <v>125948</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6432,13 @@
         <v>123726</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>205</v>
+        <v>384</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H41" s="7">
         <v>103</v>
@@ -6444,13 +6447,13 @@
         <v>101727</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>167</v>
+        <v>525</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M41" s="7">
         <v>218</v>
@@ -6459,13 +6462,13 @@
         <v>225454</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>530</v>
+        <v>198</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6483,13 @@
         <v>307397</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H42" s="7">
         <v>231</v>
@@ -6495,13 +6498,13 @@
         <v>230852</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M42" s="7">
         <v>514</v>
@@ -6510,13 +6513,13 @@
         <v>538249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6534,13 @@
         <v>392361</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H43" s="7">
         <v>273</v>
@@ -6546,13 +6549,13 @@
         <v>278864</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>445</v>
+        <v>544</v>
       </c>
       <c r="M43" s="7">
         <v>647</v>
@@ -6561,13 +6564,13 @@
         <v>671225</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,10 +6585,10 @@
         <v>530689</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>550</v>
@@ -6600,10 +6603,10 @@
         <v>551</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M44" s="7">
         <v>840</v>
@@ -6612,13 +6615,13 @@
         <v>898618</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6677,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{448E4381-9B17-4C53-90C6-1AEA2992966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C95F30-442B-4BA6-8F51-B6BCBE9BFD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A2B4CB9-ED7D-4F2F-B17E-71BE1CDD921C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5B034A8-8D64-4487-B414-4C1F736657B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="562">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -78,25 +78,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,82%</t>
+    <t>6,29%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,1609 +105,1624 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>23,56%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D829F-CBAA-4379-94ED-3D1C4C2A7B9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B1E3F9-053F-4136-A9F0-00200D8D942E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2587,7 +2602,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2617,13 @@
         <v>17590</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2617,13 +2632,13 @@
         <v>8777</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -2632,13 +2647,13 @@
         <v>26367</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2668,13 @@
         <v>62122</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -2668,13 +2683,13 @@
         <v>39296</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>97</v>
@@ -2683,13 +2698,13 @@
         <v>101419</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2719,13 @@
         <v>90157</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -2719,13 +2734,13 @@
         <v>70804</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -2734,13 +2749,13 @@
         <v>160961</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2770,13 @@
         <v>192750</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>129</v>
@@ -2770,13 +2785,13 @@
         <v>137666</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>311</v>
@@ -2785,13 +2800,13 @@
         <v>330416</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2862,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2859,13 +2874,13 @@
         <v>13631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2874,13 +2889,13 @@
         <v>8097</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2889,13 +2904,13 @@
         <v>21728</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2925,13 @@
         <v>20151</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2925,13 +2940,13 @@
         <v>13183</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -2940,13 +2955,13 @@
         <v>33334</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2976,13 @@
         <v>72180</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -2976,13 +2991,13 @@
         <v>60707</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>126</v>
@@ -2991,13 +3006,13 @@
         <v>132887</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3027,13 @@
         <v>105521</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3027,13 +3042,13 @@
         <v>72594</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -3042,13 +3057,13 @@
         <v>178115</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3078,13 @@
         <v>213717</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -3078,13 +3093,13 @@
         <v>130226</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>327</v>
@@ -3093,13 +3108,13 @@
         <v>343943</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3170,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3167,13 +3182,13 @@
         <v>16555</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3182,13 +3197,13 @@
         <v>12263</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3197,13 +3212,13 @@
         <v>28817</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3233,13 @@
         <v>14786</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3233,13 +3248,13 @@
         <v>11662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -3248,13 +3263,13 @@
         <v>26448</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3284,13 @@
         <v>51349</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -3284,13 +3299,13 @@
         <v>37801</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -3299,13 +3314,13 @@
         <v>89150</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3335,13 @@
         <v>88526</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3335,13 +3350,13 @@
         <v>58957</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3350,13 +3365,13 @@
         <v>147483</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3386,13 @@
         <v>195393</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -3386,13 +3401,13 @@
         <v>103607</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>262</v>
@@ -3401,13 +3416,13 @@
         <v>299001</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,7 +3478,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3475,13 +3490,13 @@
         <v>7342</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3490,13 +3505,13 @@
         <v>2098</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3505,13 +3520,13 @@
         <v>9440</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3541,13 @@
         <v>7515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3541,13 +3556,13 @@
         <v>2960</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3556,13 +3571,13 @@
         <v>10475</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3592,13 @@
         <v>23176</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3592,13 +3607,13 @@
         <v>11722</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -3607,13 +3622,13 @@
         <v>34898</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3643,13 @@
         <v>30014</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -3643,13 +3658,13 @@
         <v>16723</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -3658,13 +3673,13 @@
         <v>46737</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3694,13 @@
         <v>89305</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -3694,13 +3709,13 @@
         <v>35145</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>116</v>
@@ -3709,13 +3724,13 @@
         <v>124450</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3786,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3786,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3801,10 +3816,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3816,10 +3831,10 @@
         <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3849,13 @@
         <v>1000</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3852,10 +3867,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3864,13 +3879,13 @@
         <v>1000</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,10 +3903,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3903,10 +3918,10 @@
         <v>12</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3918,10 +3933,10 @@
         <v>12</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,10 +3954,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3951,13 +3966,13 @@
         <v>891</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3966,13 +3981,13 @@
         <v>891</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4002,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4002,13 +4017,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4017,13 +4032,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4106,13 @@
         <v>59544</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -4106,13 +4121,13 @@
         <v>42872</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M40" s="7">
         <v>97</v>
@@ -4121,13 +4136,13 @@
         <v>102416</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4157,13 @@
         <v>66341</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -4157,13 +4172,13 @@
         <v>39618</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -4172,13 +4187,13 @@
         <v>105959</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4208,13 @@
         <v>223367</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H42" s="7">
         <v>150</v>
@@ -4208,13 +4223,13 @@
         <v>163052</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>360</v>
@@ -4223,13 +4238,13 @@
         <v>386419</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4259,13 @@
         <v>334092</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>223</v>
@@ -4259,28 +4274,28 @@
         <v>243796</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>547</v>
       </c>
       <c r="N43" s="7">
-        <v>577887</v>
+        <v>577888</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4310,13 @@
         <v>732481</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H44" s="7">
         <v>421</v>
@@ -4310,13 +4325,13 @@
         <v>452182</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M44" s="7">
         <v>1099</v>
@@ -4325,13 +4340,13 @@
         <v>1184663</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4388,7 @@
         <v>2199</v>
       </c>
       <c r="N45" s="7">
-        <v>2357344</v>
+        <v>2357345</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -4387,7 +4402,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF07EF3-F6E7-4074-B4F4-022549959050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38AF7AD-E4A7-41BB-8DE9-62E18CC66CD5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4426,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4533,13 +4548,13 @@
         <v>4690</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4548,13 +4563,13 @@
         <v>1942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4563,13 +4578,13 @@
         <v>6632</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4599,13 @@
         <v>12779</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4599,13 +4614,13 @@
         <v>11294</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4614,13 +4629,13 @@
         <v>24073</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4650,13 @@
         <v>17509</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4650,13 +4665,13 @@
         <v>21531</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -4665,13 +4680,13 @@
         <v>39040</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4701,13 @@
         <v>26005</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4701,13 +4716,13 @@
         <v>24157</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -4716,13 +4731,13 @@
         <v>50163</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4752,13 @@
         <v>18126</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4752,13 +4767,13 @@
         <v>32931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -4767,13 +4782,13 @@
         <v>51057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4856,13 @@
         <v>20417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4856,13 +4871,13 @@
         <v>11338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4871,13 +4886,13 @@
         <v>31756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4907,13 @@
         <v>33789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4907,13 +4922,13 @@
         <v>25354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -4922,13 +4937,13 @@
         <v>59143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4958,13 @@
         <v>75167</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>182</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -4958,13 +4973,13 @@
         <v>71003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>144</v>
@@ -4973,13 +4988,13 @@
         <v>146171</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5009,13 @@
         <v>88745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5012,10 +5027,10 @@
         <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -5024,13 +5039,13 @@
         <v>163025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5060,13 @@
         <v>126065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -5060,13 +5075,13 @@
         <v>91741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -5075,13 +5090,13 @@
         <v>217807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5152,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5149,13 +5164,13 @@
         <v>14991</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5164,13 +5179,13 @@
         <v>15831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5179,13 +5194,13 @@
         <v>30821</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5215,13 @@
         <v>33123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -5215,13 +5230,13 @@
         <v>30799</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5230,13 +5245,13 @@
         <v>63923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,10 +5269,10 @@
         <v>390</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5266,13 +5281,13 @@
         <v>66396</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -5281,13 +5296,13 @@
         <v>167975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5317,13 @@
         <v>134102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>183</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5317,13 +5332,13 @@
         <v>76464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -5332,13 +5347,13 @@
         <v>210565</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5368,13 @@
         <v>175793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>122</v>
@@ -5368,13 +5383,13 @@
         <v>127924</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>288</v>
@@ -5383,13 +5398,13 @@
         <v>303718</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5460,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5457,13 +5472,13 @@
         <v>17930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -5472,13 +5487,13 @@
         <v>20598</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -5487,13 +5502,13 @@
         <v>38527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5523,13 @@
         <v>30893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5523,13 +5538,13 @@
         <v>26612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -5538,13 +5553,13 @@
         <v>57505</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5574,13 @@
         <v>70340</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -5574,13 +5589,13 @@
         <v>46240</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -5589,13 +5604,13 @@
         <v>116580</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5625,13 @@
         <v>108519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5625,13 +5640,13 @@
         <v>73179</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5640,13 +5655,13 @@
         <v>181698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5676,13 @@
         <v>140046</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -5676,13 +5691,13 @@
         <v>76489</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>192</v>
@@ -5691,13 +5706,13 @@
         <v>216535</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,7 +5768,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5765,13 +5780,13 @@
         <v>10120</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5780,13 +5795,13 @@
         <v>8091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5795,13 +5810,13 @@
         <v>18211</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5831,13 @@
         <v>13141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5831,13 +5846,13 @@
         <v>7668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>259</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -5846,13 +5861,13 @@
         <v>20810</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5882,13 @@
         <v>41752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5882,13 +5897,13 @@
         <v>24499</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5897,13 +5912,13 @@
         <v>66251</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5933,13 @@
         <v>33965</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -5933,13 +5948,13 @@
         <v>28830</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
@@ -5948,13 +5963,13 @@
         <v>62796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5984,13 @@
         <v>66748</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -5984,13 +5999,13 @@
         <v>36790</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M32" s="7">
         <v>90</v>
@@ -5999,13 +6014,13 @@
         <v>103538</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,7 +6076,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6076,10 +6091,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6091,10 +6106,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6106,10 +6121,10 @@
         <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,10 +6142,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6142,10 +6157,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6157,10 +6172,10 @@
         <v>12</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6190,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>352</v>
+        <v>503</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6190,13 +6205,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>280</v>
+        <v>505</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6205,13 +6220,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6241,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>315</v>
+        <v>509</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6241,13 +6256,13 @@
         <v>1954</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6256,13 +6271,13 @@
         <v>2978</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6292,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6292,13 +6307,13 @@
         <v>2054</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6307,13 +6322,13 @@
         <v>5964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6396,13 @@
         <v>68148</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -6396,13 +6411,13 @@
         <v>57800</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>520</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="M40" s="7">
         <v>117</v>
@@ -6411,13 +6426,13 @@
         <v>125948</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6447,13 @@
         <v>123726</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="H41" s="7">
         <v>103</v>
@@ -6447,13 +6462,13 @@
         <v>101727</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>526</v>
+        <v>64</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M41" s="7">
         <v>218</v>
@@ -6462,13 +6477,13 @@
         <v>225454</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>198</v>
+        <v>534</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>528</v>
+        <v>64</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6498,13 @@
         <v>307397</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>531</v>
+        <v>403</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H42" s="7">
         <v>231</v>
@@ -6498,13 +6513,13 @@
         <v>230852</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M42" s="7">
         <v>514</v>
@@ -6513,13 +6528,13 @@
         <v>538249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6549,13 @@
         <v>392361</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H43" s="7">
         <v>273</v>
@@ -6549,13 +6564,13 @@
         <v>278864</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M43" s="7">
         <v>647</v>
@@ -6564,13 +6579,13 @@
         <v>671225</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6600,13 @@
         <v>530689</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H44" s="7">
         <v>350</v>
@@ -6600,13 +6615,13 @@
         <v>367929</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M44" s="7">
         <v>840</v>
@@ -6615,13 +6630,13 @@
         <v>898618</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6692,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C95F30-442B-4BA6-8F51-B6BCBE9BFD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67D8945-56EE-42B0-A615-09DD1F60A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5B034A8-8D64-4487-B414-4C1F736657B0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A605C4C0-7DFC-4C3C-B402-220CCA782850}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="564">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -222,7 +222,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>5,49%</t>
@@ -357,7 +357,7 @@
     <t>53,98%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,76%</t>
@@ -489,7 +489,7 @@
     <t>52,28%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,52%</t>
@@ -618,7 +618,7 @@
     <t>54,94%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,67%</t>
@@ -741,7 +741,7 @@
     <t>62,42%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0%</t>
@@ -783,6 +783,12 @@
     <t>17,03%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>4,21%</t>
   </si>
   <si>
@@ -1545,13 +1551,7 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>80,05%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1560,16 +1560,16 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>37,64%</t>
@@ -1578,19 +1578,19 @@
     <t>79,67%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>39,57%</t>
@@ -1599,13 +1599,19 @@
     <t>82,01%</t>
   </si>
   <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>4,79%</t>
@@ -2134,8 +2140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B1E3F9-053F-4136-A9F0-00200D8D942E}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0161A87-940B-4C8D-B022-7790366336E5}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4094,55 +4100,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>57</v>
-      </c>
-      <c r="D40" s="7">
-        <v>59544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H40" s="7">
-        <v>40</v>
-      </c>
-      <c r="I40" s="7">
-        <v>42872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M40" s="7">
-        <v>97</v>
-      </c>
-      <c r="N40" s="7">
-        <v>102416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,49 +4151,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>60</v>
-      </c>
-      <c r="D41" s="7">
-        <v>66341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H41" s="7">
-        <v>36</v>
-      </c>
-      <c r="I41" s="7">
-        <v>39618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M41" s="7">
-        <v>96</v>
-      </c>
-      <c r="N41" s="7">
-        <v>105959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,49 +4196,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>210</v>
-      </c>
-      <c r="D42" s="7">
-        <v>223367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="H42" s="7">
-        <v>150</v>
-      </c>
-      <c r="I42" s="7">
-        <v>163052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="M42" s="7">
-        <v>360</v>
-      </c>
-      <c r="N42" s="7">
-        <v>386419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,49 +4241,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>324</v>
-      </c>
-      <c r="D43" s="7">
-        <v>334092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="H43" s="7">
-        <v>223</v>
-      </c>
-      <c r="I43" s="7">
-        <v>243796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M43" s="7">
-        <v>547</v>
-      </c>
-      <c r="N43" s="7">
-        <v>577888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,49 +4286,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>678</v>
-      </c>
-      <c r="D44" s="7">
-        <v>732481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="H44" s="7">
-        <v>421</v>
-      </c>
-      <c r="I44" s="7">
-        <v>452182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="M44" s="7">
-        <v>1099</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1184663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,63 +4331,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>57</v>
+      </c>
+      <c r="D46" s="7">
+        <v>59544</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H46" s="7">
+        <v>40</v>
+      </c>
+      <c r="I46" s="7">
+        <v>42872</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M46" s="7">
+        <v>97</v>
+      </c>
+      <c r="N46" s="7">
+        <v>102416</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>60</v>
+      </c>
+      <c r="D47" s="7">
+        <v>66341</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H47" s="7">
+        <v>36</v>
+      </c>
+      <c r="I47" s="7">
+        <v>39618</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M47" s="7">
+        <v>96</v>
+      </c>
+      <c r="N47" s="7">
+        <v>105959</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>210</v>
+      </c>
+      <c r="D48" s="7">
+        <v>223367</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H48" s="7">
+        <v>150</v>
+      </c>
+      <c r="I48" s="7">
+        <v>163052</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M48" s="7">
+        <v>360</v>
+      </c>
+      <c r="N48" s="7">
+        <v>386419</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>324</v>
+      </c>
+      <c r="D49" s="7">
+        <v>334092</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H49" s="7">
+        <v>223</v>
+      </c>
+      <c r="I49" s="7">
+        <v>243796</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M49" s="7">
+        <v>547</v>
+      </c>
+      <c r="N49" s="7">
+        <v>577888</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>678</v>
+      </c>
+      <c r="D50" s="7">
+        <v>732481</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="7">
+        <v>421</v>
+      </c>
+      <c r="I50" s="7">
+        <v>452182</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1099</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1184663</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1329</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1415825</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>870</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>941520</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2199</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2357345</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>290</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4424,8 +4703,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38AF7AD-E4A7-41BB-8DE9-62E18CC66CD5}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE538B26-C97B-4BAB-981C-B53B986A9D5D}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4441,7 +4720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +4827,13 @@
         <v>4690</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4563,13 +4842,13 @@
         <v>1942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4578,13 +4857,13 @@
         <v>6632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4878,13 @@
         <v>12779</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4614,13 +4893,13 @@
         <v>11294</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4629,13 +4908,13 @@
         <v>24073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4929,13 @@
         <v>17509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -4665,13 +4944,13 @@
         <v>21531</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -4680,13 +4959,13 @@
         <v>39040</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4980,13 @@
         <v>26005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4716,13 +4995,13 @@
         <v>24157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -4731,13 +5010,13 @@
         <v>50163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +5031,13 @@
         <v>18126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4767,10 +5046,10 @@
         <v>32931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>191</v>
@@ -4782,13 +5061,13 @@
         <v>51057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,10 +5135,10 @@
         <v>20417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>196</v>
@@ -4871,13 +5150,13 @@
         <v>11338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4886,13 +5165,13 @@
         <v>31756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +5186,13 @@
         <v>33789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4922,13 +5201,13 @@
         <v>25354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -4937,13 +5216,13 @@
         <v>59143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,10 +5240,10 @@
         <v>182</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -4976,10 +5255,10 @@
         <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>144</v>
@@ -4988,13 +5267,13 @@
         <v>146171</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5288,13 @@
         <v>88745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5027,10 +5306,10 @@
         <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -5039,13 +5318,13 @@
         <v>163025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5339,13 @@
         <v>126065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -5075,13 +5354,13 @@
         <v>91741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -5090,13 +5369,13 @@
         <v>217807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5443,13 @@
         <v>14991</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5179,13 +5458,13 @@
         <v>15831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -5194,13 +5473,13 @@
         <v>30821</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5494,13 @@
         <v>33123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -5230,28 +5509,28 @@
         <v>30799</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
       </c>
       <c r="N17" s="7">
-        <v>63923</v>
+        <v>63922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5545,13 @@
         <v>101579</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5281,13 +5560,13 @@
         <v>66396</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -5296,13 +5575,13 @@
         <v>167975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5596,13 @@
         <v>134102</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5332,13 +5611,13 @@
         <v>76464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -5347,13 +5626,13 @@
         <v>210565</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5647,13 @@
         <v>175793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>122</v>
@@ -5383,28 +5662,28 @@
         <v>127924</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>288</v>
       </c>
       <c r="N20" s="7">
-        <v>303718</v>
+        <v>303717</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5725,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5475,10 +5754,10 @@
         <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -5487,13 +5766,13 @@
         <v>20598</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -5502,13 +5781,13 @@
         <v>38527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5802,13 @@
         <v>30893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5538,13 +5817,13 @@
         <v>26612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -5553,13 +5832,13 @@
         <v>57505</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5853,13 @@
         <v>70340</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -5589,13 +5868,13 @@
         <v>46240</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -5604,13 +5883,13 @@
         <v>116580</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5904,13 @@
         <v>108519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5640,13 +5919,13 @@
         <v>73179</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>168</v>
@@ -5655,13 +5934,13 @@
         <v>181698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5955,13 @@
         <v>140046</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -5691,13 +5970,13 @@
         <v>76489</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>192</v>
@@ -5706,13 +5985,13 @@
         <v>216535</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +6059,13 @@
         <v>10120</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5795,13 +6074,13 @@
         <v>8091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -5810,13 +6089,13 @@
         <v>18211</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +6110,13 @@
         <v>13141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5846,13 +6125,13 @@
         <v>7668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -5861,13 +6140,13 @@
         <v>20810</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +6161,13 @@
         <v>41752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -5897,13 +6176,13 @@
         <v>24499</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5912,13 +6191,13 @@
         <v>66251</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +6212,13 @@
         <v>33965</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -5948,13 +6227,13 @@
         <v>28830</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
@@ -5963,13 +6242,13 @@
         <v>62796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +6263,13 @@
         <v>66748</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -5999,13 +6278,13 @@
         <v>36790</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M32" s="7">
         <v>90</v>
@@ -6014,13 +6293,13 @@
         <v>103538</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6373,7 @@
         <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>503</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6109,7 +6388,7 @@
         <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6124,7 +6403,7 @@
         <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,7 +6424,7 @@
         <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>503</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6160,7 +6439,7 @@
         <v>235</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6175,7 +6454,7 @@
         <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6469,7 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>503</v>
+        <v>179</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
@@ -6286,10 +6565,10 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>3910</v>
+        <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>516</v>
@@ -6316,10 +6595,10 @@
         <v>519</v>
       </c>
       <c r="M38" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N38" s="7">
-        <v>5964</v>
+        <v>5169</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>520</v>
@@ -6337,10 +6616,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -6367,10 +6646,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -6384,55 +6663,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>68148</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="H40" s="7">
-        <v>56</v>
-      </c>
-      <c r="I40" s="7">
-        <v>57800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>526</v>
+        <v>249</v>
       </c>
       <c r="M40" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>125948</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>527</v>
+        <v>12</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>528</v>
+        <v>235</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,49 +6718,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>123726</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>530</v>
+        <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H41" s="7">
-        <v>103</v>
-      </c>
-      <c r="I41" s="7">
-        <v>101727</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>532</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>533</v>
+        <v>249</v>
       </c>
       <c r="M41" s="7">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>225454</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,49 +6767,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>307397</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>536</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>403</v>
+        <v>235</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="H42" s="7">
-        <v>231</v>
-      </c>
-      <c r="I42" s="7">
-        <v>230852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>538</v>
+        <v>249</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>539</v>
+        <v>249</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="M42" s="7">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>538249</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>541</v>
+        <v>12</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>542</v>
+        <v>235</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,49 +6816,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>392361</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>544</v>
+        <v>12</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>545</v>
+        <v>235</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="H43" s="7">
-        <v>273</v>
-      </c>
-      <c r="I43" s="7">
-        <v>278864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>547</v>
+        <v>249</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>548</v>
+        <v>249</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>549</v>
+        <v>249</v>
       </c>
       <c r="M43" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>671225</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>550</v>
+        <v>12</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>551</v>
+        <v>235</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,49 +6865,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>490</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>530689</v>
+        <v>795</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>553</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>555</v>
+        <v>60</v>
       </c>
       <c r="H44" s="7">
-        <v>350</v>
-      </c>
-      <c r="I44" s="7">
-        <v>367929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>556</v>
+        <v>249</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>557</v>
+        <v>249</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>558</v>
+        <v>249</v>
       </c>
       <c r="M44" s="7">
-        <v>840</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>898618</v>
+        <v>795</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>559</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>561</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,63 +6914,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>61</v>
+      </c>
+      <c r="D46" s="7">
+        <v>68148</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H46" s="7">
+        <v>56</v>
+      </c>
+      <c r="I46" s="7">
+        <v>57800</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="M46" s="7">
+        <v>117</v>
+      </c>
+      <c r="N46" s="7">
+        <v>125948</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>115</v>
+      </c>
+      <c r="D47" s="7">
+        <v>123726</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H47" s="7">
+        <v>103</v>
+      </c>
+      <c r="I47" s="7">
+        <v>101727</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M47" s="7">
+        <v>218</v>
+      </c>
+      <c r="N47" s="7">
+        <v>225454</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>283</v>
+      </c>
+      <c r="D48" s="7">
+        <v>307397</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H48" s="7">
+        <v>231</v>
+      </c>
+      <c r="I48" s="7">
+        <v>230852</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M48" s="7">
+        <v>514</v>
+      </c>
+      <c r="N48" s="7">
+        <v>538249</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>374</v>
+      </c>
+      <c r="D49" s="7">
+        <v>392361</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H49" s="7">
+        <v>273</v>
+      </c>
+      <c r="I49" s="7">
+        <v>278864</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="M49" s="7">
+        <v>647</v>
+      </c>
+      <c r="N49" s="7">
+        <v>671225</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>490</v>
+      </c>
+      <c r="D50" s="7">
+        <v>530689</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H50" s="7">
+        <v>350</v>
+      </c>
+      <c r="I50" s="7">
+        <v>367929</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="M50" s="7">
+        <v>840</v>
+      </c>
+      <c r="N50" s="7">
+        <v>898618</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>290</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
